--- a/refactored_simulation/datasets/toy/toy_plot_3.xlsx
+++ b/refactored_simulation/datasets/toy/toy_plot_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Google Drive Sync\TU e\DSAI\Research Topics in Data Mining\code\MDDFairness\refactored_simulation\datasets\toy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A46C9E1-055D-44C2-8A33-C4B462583BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6F28A7-B936-47E7-8591-4A1D106DFE67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12795" windowHeight="15600" xr2:uid="{54B44521-2680-471C-905A-C646897C2D5F}"/>
+    <workbookView xWindow="22755" yWindow="0" windowWidth="12795" windowHeight="15600" xr2:uid="{54B44521-2680-471C-905A-C646897C2D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC240D6-812D-40CD-A11E-02FA5CBECA70}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
